--- a/script/RI-clpm_t5_layout.xlsx
+++ b/script/RI-clpm_t5_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Daten/UNI/0_AKT/RI-CLPM_SS23/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A1C05-783F-F74D-A40E-D027C8B0D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCE6E4-3A26-6F47-865E-E12CC10CF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="880" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G7"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,141 +495,72 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-99</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>-99</v>
       </c>
-      <c r="C2">
-        <v>-99</v>
-      </c>
-      <c r="D2">
-        <v>-99</v>
-      </c>
-      <c r="E2">
-        <v>-99</v>
-      </c>
-      <c r="F2">
-        <v>-99</v>
-      </c>
-      <c r="G2">
-        <v>-99</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3">
+        <v>-99</v>
       </c>
       <c r="B3">
         <v>-99</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="C3">
+        <v>-99</v>
+      </c>
+      <c r="D3">
+        <v>-99</v>
+      </c>
+      <c r="E3">
+        <v>-99</v>
+      </c>
+      <c r="F3">
+        <v>-99</v>
+      </c>
+      <c r="G3">
+        <v>-99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-99</v>
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>-99</v>
       </c>
-      <c r="C4">
-        <v>-99</v>
-      </c>
-      <c r="D4">
-        <v>-99</v>
-      </c>
-      <c r="E4">
-        <v>-99</v>
-      </c>
-      <c r="F4">
-        <v>-99</v>
-      </c>
-      <c r="G4">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-99</v>
-      </c>
-      <c r="B5">
-        <v>-99</v>
-      </c>
-      <c r="C5">
-        <v>-99</v>
-      </c>
-      <c r="D5">
-        <v>-99</v>
-      </c>
-      <c r="E5">
-        <v>-99</v>
-      </c>
-      <c r="F5">
-        <v>-99</v>
-      </c>
-      <c r="G5">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>-99</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-99</v>
-      </c>
-      <c r="B7">
-        <v>-99</v>
-      </c>
-      <c r="C7">
-        <v>-99</v>
-      </c>
-      <c r="D7">
-        <v>-99</v>
-      </c>
-      <c r="E7">
-        <v>-99</v>
-      </c>
-      <c r="F7">
-        <v>-99</v>
-      </c>
-      <c r="G7">
-        <v>-99</v>
       </c>
     </row>
   </sheetData>
